--- a/109下/109下 Excel/範例檔案/ch05/第05章_範例與解答/5-3 動態圖表/5-3-1 動態圖表-設定範圍名稱.xlsx
+++ b/109下/109下 Excel/範例檔案/ch05/第05章_範例與解答/5-3 動態圖表/5-3-1 動態圖表-設定範圍名稱.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.教育訓練\1.空中大學\10601-Excel技巧\02.操作練習\第05章 Excel 圖表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\範例檔案\ch05\第05章_範例與解答\5-3 動態圖表\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373487AD-436F-405D-A0A5-3A7181DA7B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="3864" yWindow="9852" windowWidth="18960" windowHeight="13536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度業績總表" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="名次">年度業績總表!$J$1</definedName>
+    <definedName name="年度總業績">年度業績總表!$G$2:$G$16</definedName>
+    <definedName name="前三名">年度業績總表!$K$1</definedName>
+    <definedName name="業務姓名">年度業績總表!$B$2:$B$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,17 +113,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0&quot;輛&quot;_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
+      <name val="华文中宋"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -124,14 +131,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
+      <name val="华文中宋"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="微軟正黑體"/>
+      <name val="华文中宋"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -549,32 +556,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.3671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9140625" style="1" customWidth="1"/>
     <col min="3" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83984375" style="1"/>
-    <col min="9" max="9" width="13.62890625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.47265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83984375" style="1"/>
-    <col min="13" max="13" width="10.3125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83984375" style="1"/>
+    <col min="7" max="7" width="10.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="32.700000000000003" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -599,10 +606,15 @@
       <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="10">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8" t="str">
+        <f>INDEX(業務姓名,MATCH(LARGE(年度總業績,名次),年度總業績,0),1)</f>
+        <v>郁佾倩</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -625,7 +637,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="22.5" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -647,9 +659,12 @@
       <c r="G3" s="7">
         <v>344</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I3" s="11" t="str">
+        <f>"您所挑選的是第"&amp;名次&amp;"名，下方為"&amp;前三名&amp;"的圖標"</f>
+        <v>您所挑選的是第2名，下方為郁佾倩的圖標</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -672,7 +687,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="22.5" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -701,7 +716,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="22.5" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -730,7 +745,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="22.5" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -759,7 +774,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="22.5" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -788,7 +803,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="22.5" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -817,7 +832,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="22.5" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -846,7 +861,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="22.5" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -875,7 +890,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="22.5" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -904,7 +919,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="22.5" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -933,7 +948,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="22.5" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -962,7 +977,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="22.5" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -991,7 +1006,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="22.5" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1023,7 +1038,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
